--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Wnt1-Fzd2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Wnt1-Fzd2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t>Fzd2</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -452,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.01948966666666667</v>
+        <v>0.027123</v>
       </c>
       <c r="H2">
-        <v>0.05846900000000001</v>
+        <v>0.081369</v>
       </c>
       <c r="I2">
-        <v>0.07096062449330312</v>
+        <v>0.0960827240265261</v>
       </c>
       <c r="J2">
-        <v>0.07096062449330312</v>
+        <v>0.09608272402652611</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.139245</v>
+        <v>0.08425766666666668</v>
       </c>
       <c r="N2">
-        <v>0.417735</v>
+        <v>0.252773</v>
       </c>
       <c r="O2">
-        <v>0.01212793695325064</v>
+        <v>0.007654801123801229</v>
       </c>
       <c r="P2">
-        <v>0.01283499108585158</v>
+        <v>0.008027752567511702</v>
       </c>
       <c r="Q2">
-        <v>0.002713838635</v>
+        <v>0.002285320693</v>
       </c>
       <c r="R2">
-        <v>0.024424547715</v>
+        <v>0.020567886237</v>
       </c>
       <c r="S2">
-        <v>0.0008606059800180737</v>
+        <v>0.0007354941438561353</v>
       </c>
       <c r="T2">
-        <v>0.0009107789828180071</v>
+        <v>0.0007713283344974632</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.01948966666666667</v>
+        <v>0.027123</v>
       </c>
       <c r="H3">
-        <v>0.05846900000000001</v>
+        <v>0.081369</v>
       </c>
       <c r="I3">
-        <v>0.07096062449330312</v>
+        <v>0.0960827240265261</v>
       </c>
       <c r="J3">
-        <v>0.07096062449330312</v>
+        <v>0.09608272402652611</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +623,22 @@
         <v>28.142075</v>
       </c>
       <c r="O3">
-        <v>0.8170378621222814</v>
+        <v>0.8522349591772004</v>
       </c>
       <c r="P3">
-        <v>0.8646708601442703</v>
+        <v>0.8937569077249424</v>
       </c>
       <c r="Q3">
-        <v>0.1828265536861111</v>
+        <v>0.254432500075</v>
       </c>
       <c r="R3">
-        <v>1.645438983175</v>
+        <v>2.289892500675</v>
       </c>
       <c r="S3">
-        <v>0.05797751693087037</v>
+        <v>0.08188505638838067</v>
       </c>
       <c r="T3">
-        <v>0.06135758421699898</v>
+        <v>0.08587459831173701</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +661,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.01948966666666667</v>
+        <v>0.027123</v>
       </c>
       <c r="H4">
-        <v>0.05846900000000001</v>
+        <v>0.081369</v>
       </c>
       <c r="I4">
-        <v>0.07096062449330312</v>
+        <v>0.0960827240265261</v>
       </c>
       <c r="J4">
-        <v>0.07096062449330312</v>
+        <v>0.09608272402652611</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.006356333333333333</v>
+        <v>1.534105</v>
       </c>
       <c r="N4">
-        <v>0.019069</v>
+        <v>3.06821</v>
       </c>
       <c r="O4">
-        <v>0.0005536228225107701</v>
+        <v>0.139373295542195</v>
       </c>
       <c r="P4">
-        <v>0.0005858988234553099</v>
+        <v>0.09744249071366434</v>
       </c>
       <c r="Q4">
-        <v>0.0001238828178888889</v>
+        <v>0.041609529915</v>
       </c>
       <c r="R4">
-        <v>0.001114945361</v>
+        <v>0.24965717949</v>
       </c>
       <c r="S4">
-        <v>3.928542121910936E-05</v>
+        <v>0.01339136589224818</v>
       </c>
       <c r="T4">
-        <v>4.157574640228034E-05</v>
+        <v>0.009362539943698345</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,51 +723,51 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.01948966666666667</v>
+        <v>0.027123</v>
       </c>
       <c r="H5">
-        <v>0.05846900000000001</v>
+        <v>0.081369</v>
       </c>
       <c r="I5">
-        <v>0.07096062449330312</v>
+        <v>0.0960827240265261</v>
       </c>
       <c r="J5">
-        <v>0.07096062449330312</v>
+        <v>0.09608272402652611</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>1.897453</v>
+        <v>0.008111666666666666</v>
       </c>
       <c r="N5">
-        <v>3.794906</v>
+        <v>0.024335</v>
       </c>
       <c r="O5">
-        <v>0.1652640335793479</v>
+        <v>0.0007369441568035466</v>
       </c>
       <c r="P5">
-        <v>0.1165992427774658</v>
+        <v>0.0007728489938814559</v>
       </c>
       <c r="Q5">
-        <v>0.03698072648566667</v>
+        <v>0.000220012735</v>
       </c>
       <c r="R5">
-        <v>0.221884358914</v>
+        <v>0.001980114615</v>
       </c>
       <c r="S5">
-        <v>0.01172723902907274</v>
+        <v>7.080760204111614E-05</v>
       </c>
       <c r="T5">
-        <v>0.00827395508293524</v>
+        <v>7.425743659329029E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
@@ -779,55 +776,55 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.01948966666666667</v>
+        <v>0.255165</v>
       </c>
       <c r="H6">
-        <v>0.05846900000000001</v>
+        <v>0.7654949999999999</v>
       </c>
       <c r="I6">
-        <v>0.07096062449330312</v>
+        <v>0.9039172759734738</v>
       </c>
       <c r="J6">
-        <v>0.07096062449330312</v>
+        <v>0.9039172759734738</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.05759666666666666</v>
+        <v>0.08425766666666668</v>
       </c>
       <c r="N6">
-        <v>0.17279</v>
+        <v>0.252773</v>
       </c>
       <c r="O6">
-        <v>0.005016544522609259</v>
+        <v>0.007654801123801229</v>
       </c>
       <c r="P6">
-        <v>0.005309007168957103</v>
+        <v>0.008027752567511702</v>
       </c>
       <c r="Q6">
-        <v>0.001122539834444445</v>
+        <v>0.021499607515</v>
       </c>
       <c r="R6">
-        <v>0.01010285851</v>
+        <v>0.193496467635</v>
       </c>
       <c r="S6">
-        <v>0.0003559771321228122</v>
+        <v>0.006919306979945093</v>
       </c>
       <c r="T6">
-        <v>0.0003767304641486193</v>
+        <v>0.007256424233014238</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +838,7 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,10 +853,10 @@
         <v>0.7654949999999999</v>
       </c>
       <c r="I7">
-        <v>0.9290393755066968</v>
+        <v>0.9039172759734738</v>
       </c>
       <c r="J7">
-        <v>0.9290393755066969</v>
+        <v>0.9039172759734738</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.139245</v>
+        <v>9.380691666666667</v>
       </c>
       <c r="N7">
-        <v>0.417735</v>
+        <v>28.142075</v>
       </c>
       <c r="O7">
-        <v>0.01212793695325064</v>
+        <v>0.8522349591772004</v>
       </c>
       <c r="P7">
-        <v>0.01283499108585158</v>
+        <v>0.8937569077249424</v>
       </c>
       <c r="Q7">
-        <v>0.03553045042499999</v>
+        <v>2.393624189125</v>
       </c>
       <c r="R7">
-        <v>0.319774053825</v>
+        <v>21.542617702125</v>
       </c>
       <c r="S7">
-        <v>0.01126733097323257</v>
+        <v>0.7703499027888197</v>
       </c>
       <c r="T7">
-        <v>0.01192421210303358</v>
+        <v>0.8078823094132054</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +900,7 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,40 +915,40 @@
         <v>0.7654949999999999</v>
       </c>
       <c r="I8">
-        <v>0.9290393755066968</v>
+        <v>0.9039172759734738</v>
       </c>
       <c r="J8">
-        <v>0.9290393755066969</v>
+        <v>0.9039172759734738</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.380691666666667</v>
+        <v>1.534105</v>
       </c>
       <c r="N8">
-        <v>28.142075</v>
+        <v>3.06821</v>
       </c>
       <c r="O8">
-        <v>0.8170378621222814</v>
+        <v>0.139373295542195</v>
       </c>
       <c r="P8">
-        <v>0.8646708601442703</v>
+        <v>0.09744249071366434</v>
       </c>
       <c r="Q8">
-        <v>2.393624189125</v>
+        <v>0.391449902325</v>
       </c>
       <c r="R8">
-        <v>21.542617702125</v>
+        <v>2.34869941395</v>
       </c>
       <c r="S8">
-        <v>0.7590603451914109</v>
+        <v>0.1259819296499468</v>
       </c>
       <c r="T8">
-        <v>0.8033132759272713</v>
+        <v>0.088079950769966</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +962,7 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +977,10 @@
         <v>0.7654949999999999</v>
       </c>
       <c r="I9">
-        <v>0.9290393755066968</v>
+        <v>0.9039172759734738</v>
       </c>
       <c r="J9">
-        <v>0.9290393755066969</v>
+        <v>0.9039172759734738</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,152 +989,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.006356333333333333</v>
+        <v>0.008111666666666666</v>
       </c>
       <c r="N9">
-        <v>0.019069</v>
+        <v>0.024335</v>
       </c>
       <c r="O9">
-        <v>0.0005536228225107701</v>
+        <v>0.0007369441568035466</v>
       </c>
       <c r="P9">
-        <v>0.0005858988234553099</v>
+        <v>0.0007728489938814559</v>
       </c>
       <c r="Q9">
-        <v>0.001621913795</v>
+        <v>0.002069813425</v>
       </c>
       <c r="R9">
-        <v>0.014597224155</v>
+        <v>0.018628320825</v>
       </c>
       <c r="S9">
-        <v>0.0005143374012916607</v>
+        <v>0.0006661365547624304</v>
       </c>
       <c r="T9">
-        <v>0.0005443230770530295</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.255165</v>
-      </c>
-      <c r="H10">
-        <v>0.7654949999999999</v>
-      </c>
-      <c r="I10">
-        <v>0.9290393755066968</v>
-      </c>
-      <c r="J10">
-        <v>0.9290393755066969</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1.897453</v>
-      </c>
-      <c r="N10">
-        <v>3.794906</v>
-      </c>
-      <c r="O10">
-        <v>0.1652640335793479</v>
-      </c>
-      <c r="P10">
-        <v>0.1165992427774658</v>
-      </c>
-      <c r="Q10">
-        <v>0.484163594745</v>
-      </c>
-      <c r="R10">
-        <v>2.90498156847</v>
-      </c>
-      <c r="S10">
-        <v>0.1535367945502752</v>
-      </c>
-      <c r="T10">
-        <v>0.1083252876945306</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.255165</v>
-      </c>
-      <c r="H11">
-        <v>0.7654949999999999</v>
-      </c>
-      <c r="I11">
-        <v>0.9290393755066968</v>
-      </c>
-      <c r="J11">
-        <v>0.9290393755066969</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M11">
-        <v>0.05759666666666666</v>
-      </c>
-      <c r="N11">
-        <v>0.17279</v>
-      </c>
-      <c r="O11">
-        <v>0.005016544522609259</v>
-      </c>
-      <c r="P11">
-        <v>0.005309007168957103</v>
-      </c>
-      <c r="Q11">
-        <v>0.01469665345</v>
-      </c>
-      <c r="R11">
-        <v>0.13226988105</v>
-      </c>
-      <c r="S11">
-        <v>0.004660567390486447</v>
-      </c>
-      <c r="T11">
-        <v>0.004932276704808483</v>
+        <v>0.0006985915572881655</v>
       </c>
     </row>
   </sheetData>
